--- a/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
+++ b/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
@@ -872,10 +872,18 @@
       <c r="H12" t="n">
         <v>11.69664547001226</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.3222525556017057</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.05337495275340508</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.4103541666894833</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.728572074161355</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1074,10 +1082,18 @@
       <c r="H17" t="n">
         <v>24.32112420090724</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.4887390112796265</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1186085878524447</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1721465981455686</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.224517934906989</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
+++ b/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
@@ -612,19 +612,19 @@
         <v>0.326027397260274</v>
       </c>
       <c r="D5" t="n">
-        <v>110922.8865719969</v>
+        <v>110925.1157841306</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02466163238911094</v>
+        <v>-0.0246825208766715</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2343600787706867</v>
+        <v>0.2350254240398996</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.419369765502933</v>
+        <v>-1.456042908637688</v>
       </c>
       <c r="H5" t="n">
-        <v>10.74205306679753</v>
+        <v>11.19607328320341</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -646,19 +646,19 @@
         <v>0.4219178082191781</v>
       </c>
       <c r="D6" t="n">
-        <v>112397.5855982749</v>
+        <v>112276.0052060782</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0203248875255969</v>
+        <v>-0.02587394260533579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2304568903926995</v>
+        <v>0.2508985504751745</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8882388396738957</v>
+        <v>-1.232674740486448</v>
       </c>
       <c r="H6" t="n">
-        <v>5.545365235030057</v>
+        <v>7.33178013475823</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -680,19 +680,19 @@
         <v>0.7479452054794521</v>
       </c>
       <c r="D7" t="n">
-        <v>112783.7019682874</v>
+        <v>112683.8446241812</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03689172997188812</v>
+        <v>-0.03963388032448639</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1978080791034679</v>
+        <v>0.2054399416356322</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8971891729351966</v>
+        <v>-1.069322624887477</v>
       </c>
       <c r="H7" t="n">
-        <v>6.440014092212766</v>
+        <v>7.461450298835458</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -714,19 +714,19 @@
         <v>0.8246575342465754</v>
       </c>
       <c r="D8" t="n">
-        <v>114200.8396414854</v>
+        <v>114215.5753892613</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06928401405404368</v>
+        <v>-0.06732965704955755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3358829066037891</v>
+        <v>0.321411449312308</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.004526371727725</v>
+        <v>-1.669080425729304</v>
       </c>
       <c r="H8" t="n">
-        <v>13.94951107001333</v>
+        <v>10.4930469413223</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,19 +748,19 @@
         <v>1.073972602739726</v>
       </c>
       <c r="D9" t="n">
-        <v>115633.7241090824</v>
+        <v>115635.5728255198</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1160986392426217</v>
+        <v>-0.1155394685785039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4588872673657598</v>
+        <v>0.454757162130885</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.925747945244274</v>
+        <v>-1.877040912730312</v>
       </c>
       <c r="H9" t="n">
-        <v>9.621287257045458</v>
+        <v>9.1973988051309</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -782,19 +782,19 @@
         <v>1.320547945205479</v>
       </c>
       <c r="D10" t="n">
-        <v>117370.7830615943</v>
+        <v>117356.8988990418</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1849577439355757</v>
+        <v>-0.1918955689350175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.713799551308636</v>
+        <v>0.7664285994796911</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.202694246624578</v>
+        <v>-2.435615212752734</v>
       </c>
       <c r="H10" t="n">
-        <v>9.394898859315246</v>
+        <v>11.28162962324189</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D13" t="n">
-        <v>108743.0868910442</v>
+        <v>108743.0198715867</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0008007499514678983</v>
+        <v>-0.0008074144317598223</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1505632201930194</v>
+        <v>0.1505785302309477</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.153708689574328</v>
+        <v>-1.154113769028442</v>
       </c>
       <c r="H13" t="n">
-        <v>7.441145082175749</v>
+        <v>7.443400265512243</v>
       </c>
       <c r="I13" t="n">
         <v>0.1204431988911257</v>
@@ -1068,19 +1068,19 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="D17" t="n">
-        <v>108723.9957759292</v>
+        <v>108883.0544564718</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01768420206931056</v>
+        <v>-0.005601040289695854</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2240106197438504</v>
+        <v>0.1635423141702839</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.797133389053686</v>
+        <v>-0.7172470366144573</v>
       </c>
       <c r="H17" t="n">
-        <v>24.32112420090724</v>
+        <v>6.205571842529164</v>
       </c>
       <c r="I17" t="n">
         <v>0.4887390112796265</v>
@@ -1110,19 +1110,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D18" t="n">
-        <v>108810.2633870761</v>
+        <v>108983.7090307102</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02002590500642199</v>
+        <v>-0.00980539640778918</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2161788559010547</v>
+        <v>0.176796973702824</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.003775498484837</v>
+        <v>-0.6738856325479867</v>
       </c>
       <c r="H18" t="n">
-        <v>17.96299439952379</v>
+        <v>6.86389397782977</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1144,19 +1144,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D19" t="n">
-        <v>109742.9109100211</v>
+        <v>109727.1068616338</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0009352378779039195</v>
+        <v>-0.0002195558259434018</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2038270242861016</v>
+        <v>0.2107519960872463</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.513887484327447</v>
+        <v>-1.776333423858294</v>
       </c>
       <c r="H19" t="n">
-        <v>11.85845164684422</v>
+        <v>14.33606068843104</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>

--- a/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
+++ b/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>9.877922028893025</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.7429935367186518</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1899531794021503</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1808601797191824</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.961859598154068</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1124,10 +1132,18 @@
       <c r="H18" t="n">
         <v>6.86389397782977</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.7354172702498334</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2078604672774444</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1298912690655346</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.854803919449481</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
+++ b/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
@@ -1174,10 +1174,18 @@
       <c r="H19" t="n">
         <v>14.33606068843104</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.8021519022689512</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.260316539010564</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2282781566817243</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.418057025656014</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
+++ b/data_processed/20250829/BTCUSDQMOMENT_20250829.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>12.50129700330394</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.8303227957310438</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5326835134425084</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6985624488779159</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.96954242281555</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
